--- a/test_result/dump_units.xlsx
+++ b/test_result/dump_units.xlsx
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100771.2</v>
+        <v>96019.20000000001</v>
       </c>
       <c r="C7" t="n">
         <v>1200</v>
@@ -610,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.130316667822419</v>
+        <v>1.111964009315138</v>
       </c>
       <c r="G7" t="n">
         <v>2.683689440993789</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1436158003354579</v>
+        <v>0.1305214003354579</v>
       </c>
     </row>
     <row r="8">
@@ -624,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82454.39999999994</v>
+        <v>80006.39999999994</v>
       </c>
       <c r="C8" t="n">
         <v>1200</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.039543086909321</v>
+        <v>1.040248969133688</v>
       </c>
       <c r="G8" t="n">
         <v>2.683689440993789</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09777835893995301</v>
+        <v>0.08743595893995301</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>400</v>
       </c>
       <c r="F9" t="n">
-        <v>1.09379636741573</v>
+        <v>1.094941074212842</v>
       </c>
       <c r="G9" t="n">
-        <v>2.670337078651685</v>
+        <v>2.670337078651686</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04204101818181818</v>
+        <v>0.06330181818181818</v>
       </c>
     </row>
   </sheetData>
